--- a/artifacts/sprint-artifacts/BurndownCharts.xlsx
+++ b/artifacts/sprint-artifacts/BurndownCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\RiderProjects\GVSU-CIS641-One-Too-Self-Balancing-Tree\artifacts\sprint-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3669D0-50BF-45E0-BD90-8EA310032012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3661E4ED-20E8-4F10-8E00-EB0BCBEA9B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{BBFD77DB-F694-4246-B3E3-A5C100ED4A3B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{BBFD77DB-F694-4246-B3E3-A5C100ED4A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="9-19" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Work remaining</t>
   </si>
   <si>
-    <t>Estimation increases</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Add/modify events</t>
+  </si>
+  <si>
+    <t>Estimation adjustments</t>
   </si>
 </sst>
 </file>
@@ -3515,15 +3515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
+      <xdr:colOff>764268</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>132896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3556,15 +3556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
+      <xdr:colOff>764268</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>132895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3599,15 +3599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
+      <xdr:colOff>764268</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>132895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3936,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E300813-E8F0-4BAF-9E91-D5682B72E44A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <f>SUM(C19:C21)</f>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <f>SUM(B5:B6)</f>
@@ -4495,8 +4495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72516948-7ED2-462B-ADEE-98BB53A24C37}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>20</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>-3</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>-2</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f>B5-C5 +C12</f>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <f>B6-C6 +C13</f>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f>B7-C7 +C14</f>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <f>SUM(C19:C21)</f>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <f>SUM(B5:B6)</f>
@@ -5121,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8B0897-73CB-40DE-9DE2-F2AE3D3DF296}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -5332,12 +5332,12 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>-2</v>
@@ -5345,12 +5345,12 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -5421,7 +5421,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <f>B5-C5 +C12</f>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <f>B6-C6 +C13</f>
@@ -5543,14 +5543,14 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C22" si="4">B7-C7 +C14</f>
         <v>5</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:P22" si="5">C21-D7+D14</f>
+        <f t="shared" ref="D21:P21" si="5">C21-D7+D14</f>
         <v>5</v>
       </c>
       <c r="E21">
@@ -5604,7 +5604,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <f>SUM(C19:C22)</f>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <f>SUM(B5:B8)</f>
